--- a/DDAf_2025_Groupements_de_pays.xlsx
+++ b/DDAf_2025_Groupements_de_pays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDFC1E5-2EBB-47C0-91E3-F2E4D829D6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE59EF1-6C43-4BCB-9FC4-B6A51D8BF777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0F5B8359-B55D-4EA4-BFD3-D4D8F2CC43A1}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{100D27D1-DA63-49F6-A45C-E9827D0854D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -2008,7 +2008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8B6D28-428A-4395-B757-C3309ECDB829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A512D-CAC5-4060-9ABA-4F5C20F6E59C}">
   <dimension ref="A1:AA212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -13870,8 +13870,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B210" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{40C237B1-633D-4A6D-8E6F-FD79D7FF9316}"/>
-    <hyperlink ref="B212" r:id="rId2" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{D20A6AC2-81AE-43E0-9831-51DAE5932856}"/>
+    <hyperlink ref="B212" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{7636E88A-ADDD-4330-B925-AD282655F37F}"/>
+    <hyperlink ref="B210" r:id="rId2" xr:uid="{FD24E79B-AC35-4DE4-96C4-D37C4F3434FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/DDAf_2025_Groupements_de_pays.xlsx
+++ b/DDAf_2025_Groupements_de_pays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE59EF1-6C43-4BCB-9FC4-B6A51D8BF777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BF4B6-96B0-4293-A3DA-2A23937162AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{100D27D1-DA63-49F6-A45C-E9827D0854D4}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{EBAD70FD-08DD-4D2B-B4C9-2E798D5D70DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -2008,44 +2008,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A512D-CAC5-4060-9ABA-4F5C20F6E59C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E00904-2A70-44CB-8139-18F35508E00F}">
   <dimension ref="A1:AA212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="43.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
     </row>
-    <row r="5" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
     </row>
-    <row r="7" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
     </row>
-    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>66</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
     </row>
-    <row r="9" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
     </row>
-    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>73</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
     </row>
-    <row r="11" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>82</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>85</v>
       </c>
@@ -2799,7 +2799,7 @@
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
     </row>
-    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>87</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
     </row>
-    <row r="15" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>92</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>94</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
     </row>
-    <row r="17" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>99</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
     </row>
-    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>101</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
     </row>
-    <row r="19" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>103</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="AA19" s="17"/>
     </row>
-    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>105</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
     </row>
-    <row r="21" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>107</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
     </row>
-    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>109</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
     </row>
-    <row r="23" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>111</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
     </row>
-    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>113</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
     </row>
-    <row r="25" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>115</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
     </row>
-    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>117</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
     </row>
-    <row r="27" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>119</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
     </row>
-    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
     </row>
-    <row r="29" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>124</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
     </row>
-    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>126</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
     </row>
-    <row r="31" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>128</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
     </row>
-    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>130</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>132</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>134</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>136</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
     </row>
-    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>138</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
     </row>
-    <row r="37" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>140</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="Z37" s="17"/>
       <c r="AA37" s="17"/>
     </row>
-    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>142</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
     </row>
-    <row r="39" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>144</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="Z39" s="17"/>
       <c r="AA39" s="17"/>
     </row>
-    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>146</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>148</v>
       </c>
@@ -4461,7 +4461,7 @@
       <c r="Z41" s="17"/>
       <c r="AA41" s="17"/>
     </row>
-    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>151</v>
       </c>
@@ -4522,7 +4522,7 @@
       <c r="Z42" s="14"/>
       <c r="AA42" s="14"/>
     </row>
-    <row r="43" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>153</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>155</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="Z44" s="14"/>
       <c r="AA44" s="14"/>
     </row>
-    <row r="45" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>158</v>
       </c>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="AA45" s="17"/>
     </row>
-    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>160</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>162</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>164</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
     </row>
-    <row r="49" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>167</v>
       </c>
@@ -4939,7 +4939,7 @@
       <c r="Z49" s="17"/>
       <c r="AA49" s="17"/>
     </row>
-    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>169</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>171</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="Z51" s="17"/>
       <c r="AA51" s="17"/>
     </row>
-    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>173</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="Z52" s="14"/>
       <c r="AA52" s="14"/>
     </row>
-    <row r="53" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>177</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="Z53" s="17"/>
       <c r="AA53" s="17"/>
     </row>
-    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>179</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="Z54" s="14"/>
       <c r="AA54" s="14"/>
     </row>
-    <row r="55" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>181</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="Z55" s="17"/>
       <c r="AA55" s="17"/>
     </row>
-    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>183</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>185</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>187</v>
       </c>
@@ -5478,7 +5478,7 @@
       <c r="Z58" s="14"/>
       <c r="AA58" s="14"/>
     </row>
-    <row r="59" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>189</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>191</v>
       </c>
@@ -5596,7 +5596,7 @@
       <c r="Z60" s="14"/>
       <c r="AA60" s="14"/>
     </row>
-    <row r="61" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>193</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>195</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="Z62" s="14"/>
       <c r="AA62" s="14"/>
     </row>
-    <row r="63" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>197</v>
       </c>
@@ -5773,7 +5773,7 @@
       <c r="Z63" s="17"/>
       <c r="AA63" s="17"/>
     </row>
-    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>199</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>201</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="Z65" s="17"/>
       <c r="AA65" s="17"/>
     </row>
-    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>203</v>
       </c>
@@ -5950,7 +5950,7 @@
       <c r="Z66" s="14"/>
       <c r="AA66" s="14"/>
     </row>
-    <row r="67" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>205</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="Z67" s="17"/>
       <c r="AA67" s="17"/>
     </row>
-    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>207</v>
       </c>
@@ -6072,7 +6072,7 @@
       <c r="Z68" s="14"/>
       <c r="AA68" s="14"/>
     </row>
-    <row r="69" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>209</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="Z69" s="17"/>
       <c r="AA69" s="17"/>
     </row>
-    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>211</v>
       </c>
@@ -6194,7 +6194,7 @@
       <c r="Z70" s="14"/>
       <c r="AA70" s="14"/>
     </row>
-    <row r="71" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>213</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>215</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="Z72" s="14"/>
       <c r="AA72" s="14"/>
     </row>
-    <row r="73" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>217</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="Z73" s="17"/>
       <c r="AA73" s="17"/>
     </row>
-    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>219</v>
       </c>
@@ -6428,7 +6428,7 @@
       <c r="Z74" s="14"/>
       <c r="AA74" s="14"/>
     </row>
-    <row r="75" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>221</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="Z75" s="17"/>
       <c r="AA75" s="17"/>
     </row>
-    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>223</v>
       </c>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="AA76" s="14"/>
     </row>
-    <row r="77" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>225</v>
       </c>
@@ -6601,7 +6601,7 @@
       <c r="Z77" s="17"/>
       <c r="AA77" s="17"/>
     </row>
-    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>227</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>229</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="Z79" s="17"/>
       <c r="AA79" s="17"/>
     </row>
-    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>231</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="Z80" s="14"/>
       <c r="AA80" s="14"/>
     </row>
-    <row r="81" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>233</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>235</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="Z82" s="14"/>
       <c r="AA82" s="14"/>
     </row>
-    <row r="83" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>237</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="Z83" s="17"/>
       <c r="AA83" s="17"/>
     </row>
-    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>239</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>241</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>243</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>245</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="Z87" s="17"/>
       <c r="AA87" s="17"/>
     </row>
-    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>247</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="Z88" s="14"/>
       <c r="AA88" s="14"/>
     </row>
-    <row r="89" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>249</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>251</v>
       </c>
@@ -7362,7 +7362,7 @@
       <c r="Z90" s="14"/>
       <c r="AA90" s="14"/>
     </row>
-    <row r="91" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>253</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="Z91" s="17"/>
       <c r="AA91" s="17"/>
     </row>
-    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>255</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="Z92" s="14"/>
       <c r="AA92" s="14"/>
     </row>
-    <row r="93" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>257</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="Z93" s="17"/>
       <c r="AA93" s="17"/>
     </row>
-    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>259</v>
       </c>
@@ -7598,7 +7598,7 @@
       <c r="Z94" s="14"/>
       <c r="AA94" s="14"/>
     </row>
-    <row r="95" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>261</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="Z95" s="17"/>
       <c r="AA95" s="17"/>
     </row>
-    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>263</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>265</v>
       </c>
@@ -7771,7 +7771,7 @@
       <c r="Z97" s="17"/>
       <c r="AA97" s="17"/>
     </row>
-    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>267</v>
       </c>
@@ -7830,7 +7830,7 @@
       <c r="Z98" s="14"/>
       <c r="AA98" s="14"/>
     </row>
-    <row r="99" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>269</v>
       </c>
@@ -7887,7 +7887,7 @@
       <c r="Z99" s="17"/>
       <c r="AA99" s="17"/>
     </row>
-    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>271</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="Z100" s="14"/>
       <c r="AA100" s="14"/>
     </row>
-    <row r="101" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>273</v>
       </c>
@@ -8009,7 +8009,7 @@
       <c r="Z101" s="17"/>
       <c r="AA101" s="17"/>
     </row>
-    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>275</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="Z102" s="14"/>
       <c r="AA102" s="14"/>
     </row>
-    <row r="103" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>277</v>
       </c>
@@ -8123,7 +8123,7 @@
       <c r="Z103" s="17"/>
       <c r="AA103" s="17"/>
     </row>
-    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>279</v>
       </c>
@@ -8180,7 +8180,7 @@
       <c r="Z104" s="14"/>
       <c r="AA104" s="14"/>
     </row>
-    <row r="105" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>281</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="Z105" s="17"/>
       <c r="AA105" s="17"/>
     </row>
-    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>283</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>285</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>287</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>289</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="Z109" s="17"/>
       <c r="AA109" s="17"/>
     </row>
-    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>291</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="Z110" s="14"/>
       <c r="AA110" s="14"/>
     </row>
-    <row r="111" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>293</v>
       </c>
@@ -8597,7 +8597,7 @@
       <c r="Z111" s="17"/>
       <c r="AA111" s="17"/>
     </row>
-    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>295</v>
       </c>
@@ -8658,7 +8658,7 @@
       <c r="Z112" s="14"/>
       <c r="AA112" s="14"/>
     </row>
-    <row r="113" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>297</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="Z113" s="17"/>
       <c r="AA113" s="17"/>
     </row>
-    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>299</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>301</v>
       </c>
@@ -8831,7 +8831,7 @@
       <c r="Z115" s="17"/>
       <c r="AA115" s="17"/>
     </row>
-    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>303</v>
       </c>
@@ -8888,7 +8888,7 @@
       <c r="Z116" s="14"/>
       <c r="AA116" s="14"/>
     </row>
-    <row r="117" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>305</v>
       </c>
@@ -8949,7 +8949,7 @@
       <c r="Z117" s="17"/>
       <c r="AA117" s="17"/>
     </row>
-    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>307</v>
       </c>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="AA118" s="14"/>
     </row>
-    <row r="119" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>309</v>
       </c>
@@ -9067,7 +9067,7 @@
       <c r="Z119" s="17"/>
       <c r="AA119" s="17"/>
     </row>
-    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>311</v>
       </c>
@@ -9124,7 +9124,7 @@
       <c r="Z120" s="14"/>
       <c r="AA120" s="14"/>
     </row>
-    <row r="121" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>313</v>
       </c>
@@ -9181,7 +9181,7 @@
       <c r="Z121" s="17"/>
       <c r="AA121" s="17"/>
     </row>
-    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>315</v>
       </c>
@@ -9242,7 +9242,7 @@
       <c r="Z122" s="14"/>
       <c r="AA122" s="14"/>
     </row>
-    <row r="123" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>317</v>
       </c>
@@ -9303,7 +9303,7 @@
       <c r="Z123" s="17"/>
       <c r="AA123" s="17"/>
     </row>
-    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>319</v>
       </c>
@@ -9364,7 +9364,7 @@
       <c r="Z124" s="14"/>
       <c r="AA124" s="14"/>
     </row>
-    <row r="125" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>321</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="Z125" s="17"/>
       <c r="AA125" s="17"/>
     </row>
-    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>323</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="Z126" s="14"/>
       <c r="AA126" s="14"/>
     </row>
-    <row r="127" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>325</v>
       </c>
@@ -9543,7 +9543,7 @@
       <c r="Z127" s="17"/>
       <c r="AA127" s="17"/>
     </row>
-    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>327</v>
       </c>
@@ -9604,7 +9604,7 @@
       <c r="Z128" s="14"/>
       <c r="AA128" s="14"/>
     </row>
-    <row r="129" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>329</v>
       </c>
@@ -9665,7 +9665,7 @@
       <c r="Z129" s="17"/>
       <c r="AA129" s="17"/>
     </row>
-    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>331</v>
       </c>
@@ -9722,7 +9722,7 @@
       <c r="Z130" s="14"/>
       <c r="AA130" s="14"/>
     </row>
-    <row r="131" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>333</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>335</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>337</v>
       </c>
@@ -9899,7 +9899,7 @@
       <c r="Z133" s="17"/>
       <c r="AA133" s="17"/>
     </row>
-    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>339</v>
       </c>
@@ -9956,7 +9956,7 @@
       <c r="Z134" s="14"/>
       <c r="AA134" s="14"/>
     </row>
-    <row r="135" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>341</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>343</v>
       </c>
@@ -10072,7 +10072,7 @@
       <c r="Z136" s="14"/>
       <c r="AA136" s="14"/>
     </row>
-    <row r="137" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>345</v>
       </c>
@@ -10129,7 +10129,7 @@
       <c r="Z137" s="17"/>
       <c r="AA137" s="17"/>
     </row>
-    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>347</v>
       </c>
@@ -10188,7 +10188,7 @@
       <c r="Z138" s="14"/>
       <c r="AA138" s="14"/>
     </row>
-    <row r="139" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>349</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="Z139" s="17"/>
       <c r="AA139" s="17"/>
     </row>
-    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>351</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="Z140" s="14"/>
       <c r="AA140" s="14"/>
     </row>
-    <row r="141" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>353</v>
       </c>
@@ -10363,7 +10363,7 @@
       <c r="Z141" s="17"/>
       <c r="AA141" s="17"/>
     </row>
-    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>355</v>
       </c>
@@ -10420,7 +10420,7 @@
       <c r="Z142" s="14"/>
       <c r="AA142" s="14"/>
     </row>
-    <row r="143" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>357</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>359</v>
       </c>
@@ -10538,7 +10538,7 @@
       <c r="Z144" s="14"/>
       <c r="AA144" s="14"/>
     </row>
-    <row r="145" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>361</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>363</v>
       </c>
@@ -10658,7 +10658,7 @@
       <c r="Z146" s="14"/>
       <c r="AA146" s="14"/>
     </row>
-    <row r="147" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>365</v>
       </c>
@@ -10715,7 +10715,7 @@
       <c r="Z147" s="17"/>
       <c r="AA147" s="17"/>
     </row>
-    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>367</v>
       </c>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="AA148" s="14"/>
     </row>
-    <row r="149" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>369</v>
       </c>
@@ -10831,7 +10831,7 @@
       <c r="Z149" s="17"/>
       <c r="AA149" s="17"/>
     </row>
-    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>371</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="Z150" s="14"/>
       <c r="AA150" s="14"/>
     </row>
-    <row r="151" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>373</v>
       </c>
@@ -10951,7 +10951,7 @@
       <c r="Z151" s="17"/>
       <c r="AA151" s="17"/>
     </row>
-    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>375</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="Z152" s="14"/>
       <c r="AA152" s="14"/>
     </row>
-    <row r="153" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>377</v>
       </c>
@@ -11075,7 +11075,7 @@
       <c r="Z153" s="17"/>
       <c r="AA153" s="17"/>
     </row>
-    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>379</v>
       </c>
@@ -11134,7 +11134,7 @@
       <c r="Z154" s="14"/>
       <c r="AA154" s="14"/>
     </row>
-    <row r="155" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>381</v>
       </c>
@@ -11191,7 +11191,7 @@
       <c r="Z155" s="17"/>
       <c r="AA155" s="17"/>
     </row>
-    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>383</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="Z156" s="14"/>
       <c r="AA156" s="14"/>
     </row>
-    <row r="157" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>385</v>
       </c>
@@ -11309,7 +11309,7 @@
       <c r="Z157" s="17"/>
       <c r="AA157" s="17"/>
     </row>
-    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>387</v>
       </c>
@@ -11366,7 +11366,7 @@
       <c r="Z158" s="14"/>
       <c r="AA158" s="14"/>
     </row>
-    <row r="159" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>389</v>
       </c>
@@ -11429,7 +11429,7 @@
       <c r="Z159" s="17"/>
       <c r="AA159" s="17"/>
     </row>
-    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>391</v>
       </c>
@@ -11486,7 +11486,7 @@
       <c r="Z160" s="14"/>
       <c r="AA160" s="14"/>
     </row>
-    <row r="161" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>393</v>
       </c>
@@ -11547,7 +11547,7 @@
       <c r="Z161" s="17"/>
       <c r="AA161" s="17"/>
     </row>
-    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>395</v>
       </c>
@@ -11608,7 +11608,7 @@
       <c r="Z162" s="14"/>
       <c r="AA162" s="14"/>
     </row>
-    <row r="163" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>397</v>
       </c>
@@ -11667,7 +11667,7 @@
       <c r="Z163" s="17"/>
       <c r="AA163" s="17"/>
     </row>
-    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>399</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>401</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>403</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>405</v>
       </c>
@@ -11911,7 +11911,7 @@
       <c r="Z167" s="17"/>
       <c r="AA167" s="17"/>
     </row>
-    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
         <v>407</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="Z168" s="14"/>
       <c r="AA168" s="14"/>
     </row>
-    <row r="169" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>409</v>
       </c>
@@ -12029,7 +12029,7 @@
       <c r="Z169" s="17"/>
       <c r="AA169" s="17"/>
     </row>
-    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>411</v>
       </c>
@@ -12090,7 +12090,7 @@
       <c r="Z170" s="14"/>
       <c r="AA170" s="14"/>
     </row>
-    <row r="171" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>413</v>
       </c>
@@ -12151,7 +12151,7 @@
       <c r="Z171" s="17"/>
       <c r="AA171" s="17"/>
     </row>
-    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
         <v>415</v>
       </c>
@@ -12210,7 +12210,7 @@
       <c r="Z172" s="14"/>
       <c r="AA172" s="14"/>
     </row>
-    <row r="173" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
         <v>417</v>
       </c>
@@ -12267,7 +12267,7 @@
       <c r="Z173" s="17"/>
       <c r="AA173" s="17"/>
     </row>
-    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
         <v>419</v>
       </c>
@@ -12324,7 +12324,7 @@
       <c r="Z174" s="14"/>
       <c r="AA174" s="14"/>
     </row>
-    <row r="175" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>421</v>
       </c>
@@ -12381,7 +12381,7 @@
       <c r="Z175" s="17"/>
       <c r="AA175" s="17"/>
     </row>
-    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="8" t="s">
         <v>423</v>
       </c>
@@ -12438,7 +12438,7 @@
       <c r="Z176" s="14"/>
       <c r="AA176" s="14"/>
     </row>
-    <row r="177" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
         <v>425</v>
       </c>
@@ -12495,7 +12495,7 @@
       <c r="Z177" s="17"/>
       <c r="AA177" s="17"/>
     </row>
-    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="8" t="s">
         <v>427</v>
       </c>
@@ -12558,7 +12558,7 @@
       <c r="Z178" s="14"/>
       <c r="AA178" s="14"/>
     </row>
-    <row r="179" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
         <v>429</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="8" t="s">
         <v>431</v>
       </c>
@@ -12674,7 +12674,7 @@
       <c r="Z180" s="14"/>
       <c r="AA180" s="14"/>
     </row>
-    <row r="181" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
         <v>433</v>
       </c>
@@ -12735,7 +12735,7 @@
       <c r="Z181" s="17"/>
       <c r="AA181" s="17"/>
     </row>
-    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
         <v>435</v>
       </c>
@@ -12798,7 +12798,7 @@
       <c r="Z182" s="14"/>
       <c r="AA182" s="14"/>
     </row>
-    <row r="183" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
         <v>437</v>
       </c>
@@ -12855,7 +12855,7 @@
       <c r="Z183" s="17"/>
       <c r="AA183" s="17"/>
     </row>
-    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="8" t="s">
         <v>439</v>
       </c>
@@ -12914,7 +12914,7 @@
       <c r="Z184" s="14"/>
       <c r="AA184" s="14"/>
     </row>
-    <row r="185" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
         <v>441</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="8" t="s">
         <v>443</v>
       </c>
@@ -13030,7 +13030,7 @@
       <c r="Z186" s="14"/>
       <c r="AA186" s="14"/>
     </row>
-    <row r="187" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>445</v>
       </c>
@@ -13087,7 +13087,7 @@
       <c r="Z187" s="17"/>
       <c r="AA187" s="17"/>
     </row>
-    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
         <v>447</v>
       </c>
@@ -13144,7 +13144,7 @@
       <c r="Z188" s="14"/>
       <c r="AA188" s="14"/>
     </row>
-    <row r="189" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>449</v>
       </c>
@@ -13203,7 +13203,7 @@
       <c r="Z189" s="17"/>
       <c r="AA189" s="17"/>
     </row>
-    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>451</v>
       </c>
@@ -13260,7 +13260,7 @@
       <c r="Z190" s="14"/>
       <c r="AA190" s="14"/>
     </row>
-    <row r="191" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>453</v>
       </c>
@@ -13317,7 +13317,7 @@
       <c r="Z191" s="17"/>
       <c r="AA191" s="17"/>
     </row>
-    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
         <v>455</v>
       </c>
@@ -13374,7 +13374,7 @@
       <c r="Z192" s="14"/>
       <c r="AA192" s="14"/>
     </row>
-    <row r="193" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>457</v>
       </c>
@@ -13433,7 +13433,7 @@
       <c r="Z193" s="17"/>
       <c r="AA193" s="17"/>
     </row>
-    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
         <v>459</v>
       </c>
@@ -13494,7 +13494,7 @@
       <c r="Z194" s="14"/>
       <c r="AA194" s="14"/>
     </row>
-    <row r="195" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>461</v>
       </c>
@@ -13555,7 +13555,7 @@
       <c r="Z195" s="21"/>
       <c r="AA195" s="21"/>
     </row>
-    <row r="196" spans="1:27" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="B196" s="23"/>
       <c r="C196" s="24"/>
       <c r="D196" s="25"/>
@@ -13583,7 +13583,7 @@
       <c r="Z196" s="25"/>
       <c r="AA196" s="25"/>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>463</v>
       </c>
@@ -13600,7 +13600,7 @@
       <c r="U197" s="27"/>
       <c r="V197" s="27"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>464</v>
       </c>
@@ -13617,7 +13617,7 @@
       <c r="U198" s="27"/>
       <c r="V198" s="27"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>465</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="U199" s="27"/>
       <c r="V199" s="27"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>466</v>
       </c>
@@ -13651,7 +13651,7 @@
       <c r="U200" s="27"/>
       <c r="V200" s="27"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>467</v>
       </c>
@@ -13668,7 +13668,7 @@
       <c r="U201" s="27"/>
       <c r="V201" s="27"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>468</v>
       </c>
@@ -13685,7 +13685,7 @@
       <c r="U202" s="27"/>
       <c r="V202" s="27"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>469</v>
       </c>
@@ -13702,7 +13702,7 @@
       <c r="U203" s="27"/>
       <c r="V203" s="27"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>470</v>
       </c>
@@ -13719,7 +13719,7 @@
       <c r="U204" s="27"/>
       <c r="V204" s="27"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>471</v>
       </c>
@@ -13736,7 +13736,7 @@
       <c r="U205" s="27"/>
       <c r="V205" s="27"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>472</v>
       </c>
@@ -13753,7 +13753,7 @@
       <c r="U206" s="27"/>
       <c r="V206" s="27"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B207" s="26"/>
       <c r="G207"/>
       <c r="H207"/>
@@ -13767,7 +13767,7 @@
       <c r="U207" s="27"/>
       <c r="V207" s="27"/>
     </row>
-    <row r="208" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="28" t="s">
         <v>473</v>
       </c>
@@ -13788,7 +13788,7 @@
       <c r="Z208"/>
       <c r="AA208"/>
     </row>
-    <row r="209" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209"/>
       <c r="B209" s="29"/>
       <c r="M209"/>
@@ -13807,7 +13807,7 @@
       <c r="Z209"/>
       <c r="AA209"/>
     </row>
-    <row r="210" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210"/>
       <c r="B210" s="30" t="s">
         <v>474</v>
@@ -13828,7 +13828,7 @@
       <c r="Z210"/>
       <c r="AA210"/>
     </row>
-    <row r="211" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211"/>
       <c r="B211" s="1"/>
       <c r="M211"/>
@@ -13847,7 +13847,7 @@
       <c r="Z211"/>
       <c r="AA211"/>
     </row>
-    <row r="212" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212"/>
       <c r="B212" s="1" t="s">
         <v>475</v>
@@ -13870,8 +13870,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B212" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{7636E88A-ADDD-4330-B925-AD282655F37F}"/>
-    <hyperlink ref="B210" r:id="rId2" xr:uid="{FD24E79B-AC35-4DE4-96C4-D37C4F3434FF}"/>
+    <hyperlink ref="B212" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{5750A590-4F21-4D6A-B0B6-07FECDB7B2C9}"/>
+    <hyperlink ref="B210" r:id="rId2" xr:uid="{7130F080-6FCF-4B18-9079-CF31319E0758}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
